--- a/data/trans_dic/P55_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,13 +524,19 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
-recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses</t>
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,18 +546,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -555,27 +575,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -588,6 +638,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,32 +658,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -640,32 +726,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>8,0; 23,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,25</t>
+          <t>11,37; 53,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 25,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>9,26; 16,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 23,64</t>
+          <t>8,71; 26,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 18,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 31,99</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -682,32 +798,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -720,32 +866,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>11,9; 20,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 24,62</t>
+          <t>5,98; 12,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,72; 18,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 23,7</t>
+          <t>9,0; 17,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 17,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 13,76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -762,32 +938,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -800,39 +1006,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,61; 11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 14,95</t>
+          <t>2,44; 13,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,35; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,45</t>
+          <t>3,37; 7,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 11,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,32 +1078,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -880,45 +1146,1432 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 20,86</t>
+          <t>7,47; 14,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,12</t>
+          <t>9,6; 17,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 14,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 15,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 16,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 12,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 13,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 13,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 13,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>92286</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>105171</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>109433</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>92761</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>201719</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>197931</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>56532; 169590</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50442; 238036</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82090; 142554</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55943; 169111</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>154998; 291343</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>129790; 347339</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>239881</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94443</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>214342</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>131760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>454223</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>226203</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>189607; 321141</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62485; 134698</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>172511; 273567</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>96283; 182341</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>379678; 547842</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>174462; 290977</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>78467</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45833</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59003</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46201</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>137471</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92034</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49789; 129302</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20129; 115347</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38365; 86696</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30097; 69922</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99740; 191969</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61253; 195986</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>115962</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>124039</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80010; 157217</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91576; 167940</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>190535; 300428</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>410634</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>361409</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>382779</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>394760</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>793413</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>756170</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>335527; 538051</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>276680; 542774</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>328277; 453614</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>321977; 485442</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>696065; 918981</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>637022; 920857</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
